--- a/analysis_SP/sp2011_c.xlsx
+++ b/analysis_SP/sp2011_c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">cid_grupos</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">Idade ignorada</t>
   </si>
   <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doenças do aparelho circulatório</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neoplasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,13 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>136</v>
@@ -531,11 +540,14 @@
       </c>
       <c r="S2" t="n">
         <v>99</v>
+      </c>
+      <c r="T2" t="n">
+        <v>81182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>33</v>
@@ -590,11 +602,14 @@
       </c>
       <c r="S3" t="n">
         <v>5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>7270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>607</v>
@@ -649,11 +664,14 @@
       </c>
       <c r="S4" t="n">
         <v>76</v>
+      </c>
+      <c r="T4" t="n">
+        <v>34679</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>68</v>
@@ -708,11 +726,14 @@
       </c>
       <c r="S5" t="n">
         <v>14</v>
+      </c>
+      <c r="T5" t="n">
+        <v>13535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>118</v>
@@ -767,6 +788,133 @@
       </c>
       <c r="S6" t="n">
         <v>9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>47276</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7237</v>
+      </c>
+      <c r="C7" t="n">
+        <v>395</v>
+      </c>
+      <c r="D7" t="n">
+        <v>570</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2239</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3466</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3692</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3813</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4028</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4609</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5120</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5493</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5435</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5185</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5038</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5309</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6250</v>
+      </c>
+      <c r="R7" t="n">
+        <v>17849</v>
+      </c>
+      <c r="S7" t="n">
+        <v>697</v>
+      </c>
+      <c r="T7" t="n">
+        <v>86425</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8199</v>
+      </c>
+      <c r="C8" t="n">
+        <v>618</v>
+      </c>
+      <c r="D8" t="n">
+        <v>857</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2753</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4183</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4792</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5507</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6609</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9067</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12236</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16399</v>
+      </c>
+      <c r="M8" t="n">
+        <v>19615</v>
+      </c>
+      <c r="N8" t="n">
+        <v>22130</v>
+      </c>
+      <c r="O8" t="n">
+        <v>23482</v>
+      </c>
+      <c r="P8" t="n">
+        <v>26951</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>30162</v>
+      </c>
+      <c r="R8" t="n">
+        <v>75907</v>
+      </c>
+      <c r="S8" t="n">
+        <v>900</v>
+      </c>
+      <c r="T8" t="n">
+        <v>270367</v>
       </c>
     </row>
   </sheetData>
